--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32822E68-EE30-1E44-83FE-C590A0F1DE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD4FF9-8A9F-6841-93A9-44101078FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="420" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
+    <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>B728a</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Cit7</t>
   </si>
   <si>
-    <t>Pisi</t>
-  </si>
-  <si>
     <t>field sample #14</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>P. syringae pv. Syringae</t>
   </si>
   <si>
-    <t>Alan Collmer</t>
-  </si>
-  <si>
     <t>David Baltrus</t>
   </si>
   <si>
@@ -176,16 +167,61 @@
     <t>GCF_018968705.1</t>
   </si>
   <si>
-    <t>species_complex</t>
-  </si>
-  <si>
-    <t>species_match</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>genome_match</t>
+    <t>Strain</t>
+  </si>
+  <si>
+    <t>-80</t>
+  </si>
+  <si>
+    <t>Species Complex</t>
+  </si>
+  <si>
+    <t>Species Match</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Match Genome</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Alan Collmer/J. Lindemann?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phaseolus vulgaris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP000075 </t>
+  </si>
+  <si>
+    <t>Hirano, S. S., &amp; Upper, C. D. (1990). Population Biology and Epidemiology of Pseudomonas Syringae. Annual Review of Phytopathology, 28(Volume 28, 1990), 155–177. https://doi.org/10.1146/annurev.py.28.090190.001103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pisum sativum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEAJ 00000000 </t>
+  </si>
+  <si>
+    <t>1704B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrus leaf surface </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEAI 00000000 </t>
+  </si>
+  <si>
+    <t>Baltrus, D. A., Nishimura, M. T., Romanchuk, A., Chang, J. H., Mukhtar, M. S., Cherkis, K., Roach, J., Grant, S. R., Jones, C. D., &amp; Dangl, J. L. (2011). Dynamic evolution of pathogenicity revealed by sequencing and comparative genomics of 19 Pseudomonas syringae isolates. PLoS Pathogens, 7(7), e1002132. https://doi.org/10.1371/journal.ppat.1002132</t>
+  </si>
+  <si>
+    <t>Herr et al 2024</t>
   </si>
 </sst>
 </file>
@@ -567,411 +603,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5328C547-E5A2-2742-99B1-320B41AB3E7A}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>98.44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>98.92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>95.78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9">
+        <v>95.57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>95.42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>98.64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13">
+        <v>98.22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>96.6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1">
-        <v>-80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>194</v>
-      </c>
-      <c r="B5" s="1">
-        <v>194</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1">
-        <v>98.44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>200</v>
-      </c>
-      <c r="B6" s="1">
-        <v>200</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>204</v>
-      </c>
-      <c r="B7" s="1">
-        <v>204</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1">
-        <v>98.92</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>205</v>
-      </c>
-      <c r="B8" s="1">
-        <v>205</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1">
-        <v>95.78</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>215</v>
-      </c>
-      <c r="B9" s="1">
-        <v>215</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1">
-        <v>95.57</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>216</v>
-      </c>
-      <c r="B10" s="1">
-        <v>216</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1">
-        <v>95.42</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>220</v>
-      </c>
-      <c r="B11" s="1">
-        <v>220</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>98.64</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>221</v>
-      </c>
-      <c r="B12" s="1">
-        <v>221</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>227</v>
-      </c>
-      <c r="B13" s="1">
-        <v>227</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1">
-        <v>98.22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>228</v>
-      </c>
-      <c r="B14" s="1">
-        <v>228</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1">
-        <v>96.6</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD4FF9-8A9F-6841-93A9-44101078FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17083FD8-AB82-6C40-AB6B-1369B9756E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>B728a</t>
   </si>
@@ -167,27 +167,9 @@
     <t>GCF_018968705.1</t>
   </si>
   <si>
-    <t>Strain</t>
-  </si>
-  <si>
     <t>-80</t>
   </si>
   <si>
-    <t>Species Complex</t>
-  </si>
-  <si>
-    <t>Species Match</t>
-  </si>
-  <si>
-    <t>Collector</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Match Genome</t>
-  </si>
-  <si>
     <t>Paper</t>
   </si>
   <si>
@@ -222,6 +204,33 @@
   </si>
   <si>
     <t>Herr et al 2024</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>species_complex</t>
+  </si>
+  <si>
+    <t>species_match</t>
+  </si>
+  <si>
+    <t>collector</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>genome_match</t>
+  </si>
+  <si>
+    <t>previous_work</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5328C547-E5A2-2742-99B1-320B41AB3E7A}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,54 +623,58 @@
     <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1"/>
       <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,29 +685,32 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2"/>
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
       <c r="I2"/>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
+      <c r="J2"/>
       <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2"/>
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -705,60 +721,66 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3"/>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
       <c r="I3"/>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3"/>
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
       <c r="I4"/>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
+      <c r="J4"/>
       <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4"/>
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>194</v>
       </c>
@@ -769,33 +791,36 @@
         <v>194</v>
       </c>
       <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5">
+        <v>98.44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="H5">
-        <v>98.44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200</v>
       </c>
@@ -806,27 +831,30 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6"/>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6"/>
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>204</v>
       </c>
@@ -837,33 +865,36 @@
         <v>204</v>
       </c>
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>98.92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
         <v>55</v>
       </c>
-      <c r="H7">
-        <v>98.92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7"/>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>205</v>
       </c>
@@ -874,33 +905,36 @@
         <v>205</v>
       </c>
       <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>95.78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
         <v>55</v>
       </c>
-      <c r="H8">
-        <v>95.78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>215</v>
       </c>
@@ -911,33 +945,36 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9">
+        <v>95.57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="H9">
-        <v>95.57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>216</v>
       </c>
@@ -948,33 +985,36 @@
         <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10">
+        <v>95.42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
         <v>55</v>
       </c>
-      <c r="H10">
-        <v>95.42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>220</v>
       </c>
@@ -985,33 +1025,36 @@
         <v>220</v>
       </c>
       <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>98.64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
         <v>55</v>
       </c>
-      <c r="H11">
-        <v>98.64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>221</v>
       </c>
@@ -1022,27 +1065,30 @@
         <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12"/>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>227</v>
       </c>
@@ -1053,33 +1099,36 @@
         <v>227</v>
       </c>
       <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13">
+        <v>98.22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
         <v>55</v>
       </c>
-      <c r="H13">
-        <v>98.22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>228</v>
       </c>
@@ -1090,33 +1139,36 @@
         <v>228</v>
       </c>
       <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>96.6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
         <v>55</v>
       </c>
-      <c r="H14">
-        <v>96.6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1178,8 @@
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
+      <c r="D15" t="s">
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -1148,6 +1200,9 @@
         <v>18</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17083FD8-AB82-6C40-AB6B-1369B9756E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCA17E-CA4A-3B43-9916-458B62787C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DCA17E-CA4A-3B43-9916-458B62787C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F3974-67CA-2840-A1C2-22F0DFF12AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -615,7 +615,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F3974-67CA-2840-A1C2-22F0DFF12AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6104D97-C756-3842-A517-19EA94185A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -237,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -274,9 +281,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,564 +621,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5328C547-E5A2-2742-99B1-320B41AB3E7A}">
-  <dimension ref="A1:N15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1"/>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2"/>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M3"/>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M4"/>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>194</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>194</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>98.44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M5"/>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>200</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M6"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>204</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>204</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>98.92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>205</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>205</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>95.78</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>215</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>215</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>95.57</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M9"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>216</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>216</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>95.42</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>220</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>220</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>98.64</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>221</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>221</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M12"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>227</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>227</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>98.22</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>228</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>228</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>96.6</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1178,7 +1150,7 @@
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1208,5 +1180,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="35" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6104D97-C756-3842-A517-19EA94185A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C8D79-83AD-4649-96D2-7E0D094CD7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -621,13 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5328C547-E5A2-2742-99B1-320B41AB3E7A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,6 +1177,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="35" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C8D79-83AD-4649-96D2-7E0D094CD7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC968825-8787-A14A-B3DD-00EC9CD225B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>

--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC968825-8787-A14A-B3DD-00EC9CD225B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F69044-970C-214A-98B7-83F8683FF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -237,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +253,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -279,13 +286,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +634,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,10 +705,10 @@
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -727,10 +737,10 @@
       <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -756,10 +766,10 @@
       <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -788,10 +798,10 @@
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -826,10 +836,10 @@
       <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -855,10 +865,10 @@
       <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -893,10 +903,10 @@
       <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -931,10 +941,10 @@
       <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -969,10 +979,10 @@
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1007,10 +1017,10 @@
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1045,10 +1055,10 @@
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1074,10 +1084,10 @@
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1112,10 +1122,10 @@
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="1" t="s">

--- a/data/strains_R.xlsx
+++ b/data/strains_R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F69044-970C-214A-98B7-83F8683FF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE5036B-5FB2-2E4E-A54E-7D2590B0D591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1440" windowWidth="27240" windowHeight="16440" xr2:uid="{8DC0B241-2AC9-B649-9A5B-D0EAA93A84D3}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>B728a</t>
-  </si>
-  <si>
-    <t>B728a ΔFlgK</t>
   </si>
   <si>
     <t>P. syringae</t>
@@ -634,7 +631,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,40 +653,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -697,92 +694,92 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -790,37 +787,37 @@
         <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>194</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1">
         <v>98.44</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -828,28 +825,28 @@
         <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -857,37 +854,37 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>204</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1">
         <v>98.92</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -895,37 +892,37 @@
         <v>205</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>205</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>95.78</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -933,37 +930,37 @@
         <v>215</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1">
         <v>95.57</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -971,37 +968,37 @@
         <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1">
         <v>95.42</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1009,37 +1006,37 @@
         <v>220</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>220</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="1">
         <v>98.64</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1047,28 +1044,28 @@
         <v>221</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>221</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1076,37 +1073,37 @@
         <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1">
         <v>98.22</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1114,75 +1111,75 @@
         <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1">
         <v>96.6</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
